--- a/utils/Tools/excel/10_global_全局.xlsx
+++ b/utils/Tools/excel/10_global_全局.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22785" windowHeight="9270"/>
+    <workbookView windowWidth="16185" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,33 +27,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
   <si>
     <t>说明</t>
   </si>
   <si>
+    <t>导出标识</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
     <t>变量名</t>
   </si>
   <si>
-    <t>变量类型</t>
-  </si>
-  <si>
-    <t>导出标识</t>
-  </si>
-  <si>
     <t>变量值</t>
   </si>
   <si>
     <t>最大背包容量</t>
   </si>
   <si>
-    <t>max_bag_capacity</t>
+    <t>cs</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>cs</t>
+    <t>maxCapacity</t>
   </si>
 </sst>
 </file>
@@ -1198,17 +1213,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.375" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1242,7 +1258,24 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
